--- a/bin/enum.xlsx
+++ b/bin/enum.xlsx
@@ -663,10 +663,15 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
